--- a/server-res/excel/Cfg_SkillFAM.xlsx
+++ b/server-res/excel/Cfg_SkillFAM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,10 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
-  <si>
-    <t>int32</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>dis</t>
   </si>
@@ -167,10 +164,6 @@
     <t>like</t>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,13 +217,17 @@
   </si>
   <si>
     <t>idskill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#memo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,6 +295,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -345,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,7 +380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -607,75 +607,79 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1"/>
+      <c r="A3" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
@@ -691,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -699,9 +703,7 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -717,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -735,13 +737,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -749,7 +751,9 @@
       <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -765,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -773,9 +777,7 @@
       <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
@@ -791,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -809,21 +811,23 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
@@ -839,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -847,9 +851,7 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
@@ -865,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -880,24 +882,26 @@
         <v>10001</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
@@ -913,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -921,9 +925,7 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -939,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -960,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -971,7 +973,9 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
@@ -987,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -995,9 +999,7 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
@@ -1013,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1022,30 +1024,6 @@
         <v>0</v>
       </c>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/server-res/excel/Cfg_SkillFAM.xlsx
+++ b/server-res/excel/Cfg_SkillFAM.xlsx
@@ -21,20 +21,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0=near 1=mid 2=far</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -45,17 +31,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>0=low 1=ok 2=lots</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>0=near 1=mid 2=far</t>
         </r>
       </text>
     </comment>
@@ -117,11 +93,155 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>0=AND 1=OR</t>
+          <t>0=low 1=ok 2=lots</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
     <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0=low 1=ok 2=lots</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0=low 1=ok 2=lots</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0=low 1=ok 2=lots</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0=low 1=ok 2=lots</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0=low 1=ok 2=lots</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0=AND 1=OR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>dis</t>
   </si>
@@ -216,11 +336,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>idskill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_dis</t>
+  </si>
+  <si>
+    <t>skill_pow</t>
+  </si>
+  <si>
+    <t>skill_usetime</t>
+  </si>
+  <si>
+    <t>skill_cd</t>
+  </si>
+  <si>
+    <t>skill_mp</t>
+  </si>
+  <si>
+    <t>技能释放距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能使用时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能CD时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能消耗mp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +411,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,13 +439,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,78 +754,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -672,22 +870,35 @@
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -695,23 +906,38 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -719,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -727,73 +953,118 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -801,147 +1072,237 @@
       <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -949,14 +1310,31 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -965,25 +1343,38 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="1">
         <v>0</v>
       </c>
@@ -991,23 +1382,38 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="1">
         <v>0</v>
       </c>
@@ -1023,7 +1429,24 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
